--- a/jpcore-r4/feature/kohe-dotPackage-test/StructureDefinition-jp-patient.xlsx
+++ b/jpcore-r4/feature/kohe-dotPackage-test/StructureDefinition-jp-patient.xlsx
@@ -963,7 +963,7 @@
     <t>home | work | temp | old | mobile - 連絡先の用途等 【詳細参照】</t>
   </si>
   <si>
-    <t>「接点の目的を特定する。」(Setten no mokuteki wo tokutei suru.)</t>
+    <t>「接点の目的を特定する。」</t>
   </si>
   <si>
     <t>患者の連絡先の種別をValueSet(ContactPointUse)より選択する。   一時的なものまたは古いものであると明示しない限り、連絡先が最新とみなされる。  
@@ -977,7 +977,7 @@
     <t>Need to track the way a person uses this contact, so a user can choose which is appropriate for their purpose.</t>
   </si>
   <si>
-    <t>「接点の使用。」(Setten no shiyō.)</t>
+    <t>「接点の使用。」</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/contact-point-use|4.0.1</t>
